--- a/Touchstone2/reg_techgear_sales_data.xlsx
+++ b/Touchstone2/reg_techgear_sales_data.xlsx
@@ -418,7 +418,7 @@
         <v>43861</v>
       </c>
       <c r="B2">
-        <v>19600.05234596766</v>
+        <v>21529.55234596766</v>
       </c>
       <c r="C2">
         <v>6418</v>
@@ -435,7 +435,7 @@
         <v>43890</v>
       </c>
       <c r="B3">
-        <v>12286.15720836722</v>
+        <v>12119.65720836722</v>
       </c>
       <c r="C3">
         <v>3443</v>
@@ -452,7 +452,7 @@
         <v>43921</v>
       </c>
       <c r="B4">
-        <v>26608.73798410574</v>
+        <v>23560.23798410574</v>
       </c>
       <c r="C4">
         <v>10315</v>
@@ -469,7 +469,7 @@
         <v>43951</v>
       </c>
       <c r="B5">
-        <v>25304.89319920146</v>
+        <v>26269.89319920146</v>
       </c>
       <c r="C5">
         <v>9032</v>
@@ -486,7 +486,7 @@
         <v>43982</v>
       </c>
       <c r="B6">
-        <v>14103.55799014997</v>
+        <v>13825.05799014997</v>
       </c>
       <c r="C6">
         <v>3618</v>
@@ -503,7 +503,7 @@
         <v>44012</v>
       </c>
       <c r="B7">
-        <v>16710.72212012359</v>
+        <v>16003.72212012359</v>
       </c>
       <c r="C7">
         <v>6344</v>
@@ -520,7 +520,7 @@
         <v>44043</v>
       </c>
       <c r="B8">
-        <v>33748.08841752559</v>
+        <v>31591.08841752559</v>
       </c>
       <c r="C8">
         <v>13899</v>
@@ -537,7 +537,7 @@
         <v>44074</v>
       </c>
       <c r="B9">
-        <v>16598.6427917023</v>
+        <v>19312.6427917023</v>
       </c>
       <c r="C9">
         <v>5875</v>
@@ -554,7 +554,7 @@
         <v>44104</v>
       </c>
       <c r="B10">
-        <v>14374.78114820644</v>
+        <v>17417.28114820644</v>
       </c>
       <c r="C10">
         <v>4739</v>
@@ -571,7 +571,7 @@
         <v>44135</v>
       </c>
       <c r="B11">
-        <v>23156.59850193837</v>
+        <v>21565.59850193837</v>
       </c>
       <c r="C11">
         <v>8873</v>
@@ -588,7 +588,7 @@
         <v>44165</v>
       </c>
       <c r="B12">
-        <v>34800.04357116088</v>
+        <v>33159.04357116088</v>
       </c>
       <c r="C12">
         <v>14828</v>
@@ -605,7 +605,7 @@
         <v>44196</v>
       </c>
       <c r="B13">
-        <v>18264.27350696297</v>
+        <v>18235.27350696297</v>
       </c>
       <c r="C13">
         <v>5905</v>
@@ -622,7 +622,7 @@
         <v>44227</v>
       </c>
       <c r="B14">
-        <v>27893.03772514699</v>
+        <v>25812.53772514699</v>
       </c>
       <c r="C14">
         <v>11066</v>
@@ -639,7 +639,7 @@
         <v>44255</v>
       </c>
       <c r="B15">
-        <v>29399.67501649283</v>
+        <v>29309.17501649283</v>
       </c>
       <c r="C15">
         <v>12139</v>
@@ -656,7 +656,7 @@
         <v>44286</v>
       </c>
       <c r="B16">
-        <v>17147.86323274543</v>
+        <v>19619.86323274543</v>
       </c>
       <c r="C16">
         <v>5852</v>
@@ -673,7 +673,7 @@
         <v>44316</v>
       </c>
       <c r="B17">
-        <v>28811.67432737427</v>
+        <v>29537.67432737427</v>
       </c>
       <c r="C17">
         <v>11739</v>
@@ -690,7 +690,7 @@
         <v>44347</v>
       </c>
       <c r="B18">
-        <v>21320.07907315761</v>
+        <v>23059.07907315761</v>
       </c>
       <c r="C18">
         <v>7413</v>
@@ -707,7 +707,7 @@
         <v>44377</v>
       </c>
       <c r="B19">
-        <v>25970.8417362342</v>
+        <v>25586.8417362342</v>
       </c>
       <c r="C19">
         <v>10588</v>
@@ -724,7 +724,7 @@
         <v>44408</v>
       </c>
       <c r="B20">
-        <v>26517.0677016509</v>
+        <v>23278.0677016509</v>
       </c>
       <c r="C20">
         <v>10602</v>
@@ -741,7 +741,7 @@
         <v>44439</v>
       </c>
       <c r="B21">
-        <v>23003.90426069828</v>
+        <v>21995.90426069828</v>
       </c>
       <c r="C21">
         <v>9429</v>
@@ -758,7 +758,7 @@
         <v>44469</v>
       </c>
       <c r="B22">
-        <v>10613.01018416592</v>
+        <v>11662.51018416592</v>
       </c>
       <c r="C22">
         <v>4083</v>
@@ -775,7 +775,7 @@
         <v>44500</v>
       </c>
       <c r="B23">
-        <v>31701.61859544036</v>
+        <v>28153.61859544036</v>
       </c>
       <c r="C23">
         <v>13024</v>
@@ -792,7 +792,7 @@
         <v>44530</v>
       </c>
       <c r="B24">
-        <v>19562.4361988595</v>
+        <v>23475.9361988595</v>
       </c>
       <c r="C24">
         <v>6849</v>
@@ -809,7 +809,7 @@
         <v>44561</v>
       </c>
       <c r="B25">
-        <v>14733.83497959356</v>
+        <v>15973.33497959356</v>
       </c>
       <c r="C25">
         <v>5238</v>
@@ -826,7 +826,7 @@
         <v>44592</v>
       </c>
       <c r="B26">
-        <v>14247.75462398761</v>
+        <v>19355.75462398761</v>
       </c>
       <c r="C26">
         <v>3489</v>
@@ -843,7 +843,7 @@
         <v>44620</v>
       </c>
       <c r="B27">
-        <v>23727.63432540124</v>
+        <v>23969.13432540124</v>
       </c>
       <c r="C27">
         <v>10091</v>
@@ -860,7 +860,7 @@
         <v>44651</v>
       </c>
       <c r="B28">
-        <v>27307.75851730144</v>
+        <v>28011.25851730144</v>
       </c>
       <c r="C28">
         <v>11131</v>
@@ -877,7 +877,7 @@
         <v>44681</v>
       </c>
       <c r="B29">
-        <v>11210.81614997417</v>
+        <v>14127.31614997417</v>
       </c>
       <c r="C29">
         <v>3199</v>
@@ -894,7 +894,7 @@
         <v>44712</v>
       </c>
       <c r="B30">
-        <v>24822.77921435846</v>
+        <v>25211.77921435846</v>
       </c>
       <c r="C30">
         <v>9145</v>
@@ -911,7 +911,7 @@
         <v>44742</v>
       </c>
       <c r="B31">
-        <v>17905.35876990029</v>
+        <v>19501.35876990029</v>
       </c>
       <c r="C31">
         <v>5718</v>
@@ -928,7 +928,7 @@
         <v>44773</v>
       </c>
       <c r="B32">
-        <v>26638.94742569692</v>
+        <v>23939.44742569692</v>
       </c>
       <c r="C32">
         <v>10742</v>
@@ -945,7 +945,7 @@
         <v>44804</v>
       </c>
       <c r="B33">
-        <v>15562.16251960217</v>
+        <v>18850.66251960217</v>
       </c>
       <c r="C33">
         <v>5092</v>
@@ -962,7 +962,7 @@
         <v>44834</v>
       </c>
       <c r="B34">
-        <v>26694.21425236989</v>
+        <v>24233.21425236989</v>
       </c>
       <c r="C34">
         <v>11291</v>
@@ -979,7 +979,7 @@
         <v>44865</v>
       </c>
       <c r="B35">
-        <v>18301.20353177607</v>
+        <v>16126.70353177607</v>
       </c>
       <c r="C35">
         <v>7641</v>
@@ -996,7 +996,7 @@
         <v>44895</v>
       </c>
       <c r="B36">
-        <v>33134.08785067384</v>
+        <v>31386.58785067385</v>
       </c>
       <c r="C36">
         <v>14241</v>
@@ -1013,7 +1013,7 @@
         <v>44926</v>
       </c>
       <c r="B37">
-        <v>14456.34896910398</v>
+        <v>14693.84896910398</v>
       </c>
       <c r="C37">
         <v>4650</v>
@@ -1030,7 +1030,7 @@
         <v>44957</v>
       </c>
       <c r="B38">
-        <v>20416.29068072772</v>
+        <v>24012.79068072772</v>
       </c>
       <c r="C38">
         <v>7093</v>
@@ -1047,7 +1047,7 @@
         <v>44985</v>
       </c>
       <c r="B39">
-        <v>14926.37984878441</v>
+        <v>19968.87984878441</v>
       </c>
       <c r="C39">
         <v>4362</v>
@@ -1064,7 +1064,7 @@
         <v>45016</v>
       </c>
       <c r="B40">
-        <v>32804.67318259205</v>
+        <v>32745.67318259205</v>
       </c>
       <c r="C40">
         <v>14096</v>
@@ -1081,7 +1081,7 @@
         <v>45046</v>
       </c>
       <c r="B41">
-        <v>31753.69724942467</v>
+        <v>28710.69724942467</v>
       </c>
       <c r="C41">
         <v>13528</v>
@@ -1098,7 +1098,7 @@
         <v>45077</v>
       </c>
       <c r="B42">
-        <v>16141.44703493291</v>
+        <v>14686.44703493291</v>
       </c>
       <c r="C42">
         <v>6095</v>
@@ -1115,7 +1115,7 @@
         <v>45107</v>
       </c>
       <c r="B43">
-        <v>25419.98206282103</v>
+        <v>27029.98206282103</v>
       </c>
       <c r="C43">
         <v>10920</v>
@@ -1132,7 +1132,7 @@
         <v>45138</v>
       </c>
       <c r="B44">
-        <v>28907.72980937499</v>
+        <v>26573.22980937499</v>
       </c>
       <c r="C44">
         <v>12807</v>
@@ -1149,7 +1149,7 @@
         <v>45169</v>
       </c>
       <c r="B45">
-        <v>26274.77539523179</v>
+        <v>28743.77539523179</v>
       </c>
       <c r="C45">
         <v>9662</v>
@@ -1166,7 +1166,7 @@
         <v>45199</v>
       </c>
       <c r="B46">
-        <v>23202.34781824834</v>
+        <v>25805.84781824834</v>
       </c>
       <c r="C46">
         <v>9356</v>
@@ -1183,7 +1183,7 @@
         <v>45230</v>
       </c>
       <c r="B47">
-        <v>16365.92569838881</v>
+        <v>20032.92569838882</v>
       </c>
       <c r="C47">
         <v>5902</v>
@@ -1200,7 +1200,7 @@
         <v>45260</v>
       </c>
       <c r="B48">
-        <v>11981.20463995007</v>
+        <v>13189.20463995007</v>
       </c>
       <c r="C48">
         <v>4117</v>
@@ -1217,7 +1217,7 @@
         <v>45291</v>
       </c>
       <c r="B49">
-        <v>33311.49035583191</v>
+        <v>30238.49035583191</v>
       </c>
       <c r="C49">
         <v>13767</v>
@@ -1234,7 +1234,7 @@
         <v>45322</v>
       </c>
       <c r="B50">
-        <v>30996.10215244205</v>
+        <v>30700.60215244205</v>
       </c>
       <c r="C50">
         <v>13805</v>
@@ -1251,7 +1251,7 @@
         <v>45351</v>
       </c>
       <c r="B51">
-        <v>25981.25971978603</v>
+        <v>24084.25971978603</v>
       </c>
       <c r="C51">
         <v>10597</v>
@@ -1268,7 +1268,7 @@
         <v>45382</v>
       </c>
       <c r="B52">
-        <v>18240.53343880632</v>
+        <v>17223.53343880632</v>
       </c>
       <c r="C52">
         <v>7068</v>
@@ -1285,7 +1285,7 @@
         <v>45412</v>
       </c>
       <c r="B53">
-        <v>19768.90249785926</v>
+        <v>21014.40249785926</v>
       </c>
       <c r="C53">
         <v>7191</v>
@@ -1302,7 +1302,7 @@
         <v>45443</v>
       </c>
       <c r="B54">
-        <v>27911.19486243113</v>
+        <v>29172.69486243113</v>
       </c>
       <c r="C54">
         <v>11711</v>
@@ -1319,7 +1319,7 @@
         <v>45473</v>
       </c>
       <c r="B55">
-        <v>31349.36781587759</v>
+        <v>30142.86781587759</v>
       </c>
       <c r="C55">
         <v>13765</v>
@@ -1336,7 +1336,7 @@
         <v>45504</v>
       </c>
       <c r="B56">
-        <v>32261.81777166135</v>
+        <v>30359.81777166135</v>
       </c>
       <c r="C56">
         <v>13645</v>
@@ -1353,7 +1353,7 @@
         <v>45535</v>
       </c>
       <c r="B57">
-        <v>30146.33187053042</v>
+        <v>26049.83187053042</v>
       </c>
       <c r="C57">
         <v>12359</v>
@@ -1370,7 +1370,7 @@
         <v>45565</v>
       </c>
       <c r="B58">
-        <v>26474.51722238317</v>
+        <v>26312.51722238317</v>
       </c>
       <c r="C58">
         <v>10704</v>
@@ -1387,7 +1387,7 @@
         <v>45596</v>
       </c>
       <c r="B59">
-        <v>13322.47189773978</v>
+        <v>18757.97189773978</v>
       </c>
       <c r="C59">
         <v>4010</v>
@@ -1404,7 +1404,7 @@
         <v>45626</v>
       </c>
       <c r="B60">
-        <v>14245.67790631904</v>
+        <v>14116.17790631904</v>
       </c>
       <c r="C60">
         <v>4940</v>
@@ -1421,7 +1421,7 @@
         <v>45657</v>
       </c>
       <c r="B61">
-        <v>32203.25883401286</v>
+        <v>29921.75883401286</v>
       </c>
       <c r="C61">
         <v>13783</v>

--- a/Touchstone2/reg_techgear_sales_data.xlsx
+++ b/Touchstone2/reg_techgear_sales_data.xlsx
@@ -418,7 +418,7 @@
         <v>43861</v>
       </c>
       <c r="B2">
-        <v>21529.55234596766</v>
+        <v>10707.15234596766</v>
       </c>
       <c r="C2">
         <v>6418</v>
@@ -435,7 +435,7 @@
         <v>43890</v>
       </c>
       <c r="B3">
-        <v>12119.65720836722</v>
+        <v>2608.457208367223</v>
       </c>
       <c r="C3">
         <v>3443</v>
@@ -452,7 +452,7 @@
         <v>43921</v>
       </c>
       <c r="B4">
-        <v>23560.23798410574</v>
+        <v>14469.03798410574</v>
       </c>
       <c r="C4">
         <v>10315</v>
@@ -469,7 +469,7 @@
         <v>43951</v>
       </c>
       <c r="B5">
-        <v>26269.89319920146</v>
+        <v>17125.89319920146</v>
       </c>
       <c r="C5">
         <v>9032</v>
@@ -486,7 +486,7 @@
         <v>43982</v>
       </c>
       <c r="B6">
-        <v>13825.05799014997</v>
+        <v>7973.857990149967</v>
       </c>
       <c r="C6">
         <v>3618</v>
@@ -503,7 +503,7 @@
         <v>44012</v>
       </c>
       <c r="B7">
-        <v>16003.72212012359</v>
+        <v>10785.32212012359</v>
       </c>
       <c r="C7">
         <v>6344</v>
@@ -520,7 +520,7 @@
         <v>44043</v>
       </c>
       <c r="B8">
-        <v>31591.08841752559</v>
+        <v>21421.48841752559</v>
       </c>
       <c r="C8">
         <v>13899</v>
@@ -537,7 +537,7 @@
         <v>44074</v>
       </c>
       <c r="B9">
-        <v>19312.6427917023</v>
+        <v>9135.842791702302</v>
       </c>
       <c r="C9">
         <v>5875</v>
@@ -554,7 +554,7 @@
         <v>44104</v>
       </c>
       <c r="B10">
-        <v>17417.28114820644</v>
+        <v>6693.281148206443</v>
       </c>
       <c r="C10">
         <v>4739</v>
@@ -571,7 +571,7 @@
         <v>44135</v>
       </c>
       <c r="B11">
-        <v>21565.59850193837</v>
+        <v>10398.39850193837</v>
       </c>
       <c r="C11">
         <v>8873</v>
@@ -588,7 +588,7 @@
         <v>44165</v>
       </c>
       <c r="B12">
-        <v>33159.04357116088</v>
+        <v>25850.24357116088</v>
       </c>
       <c r="C12">
         <v>14828</v>
@@ -605,7 +605,7 @@
         <v>44196</v>
       </c>
       <c r="B13">
-        <v>18235.27350696297</v>
+        <v>11020.87350696297</v>
       </c>
       <c r="C13">
         <v>5905</v>
@@ -622,7 +622,7 @@
         <v>44227</v>
       </c>
       <c r="B14">
-        <v>25812.53772514699</v>
+        <v>15748.53772514699</v>
       </c>
       <c r="C14">
         <v>11066</v>
@@ -639,7 +639,7 @@
         <v>44255</v>
       </c>
       <c r="B15">
-        <v>29309.17501649283</v>
+        <v>20669.17501649283</v>
       </c>
       <c r="C15">
         <v>12139</v>
@@ -656,7 +656,7 @@
         <v>44286</v>
       </c>
       <c r="B16">
-        <v>19619.86323274543</v>
+        <v>10480.66323274542</v>
       </c>
       <c r="C16">
         <v>5852</v>
@@ -673,7 +673,7 @@
         <v>44316</v>
       </c>
       <c r="B17">
-        <v>29537.67432737427</v>
+        <v>19497.67432737427</v>
       </c>
       <c r="C17">
         <v>11739</v>
@@ -690,7 +690,7 @@
         <v>44347</v>
       </c>
       <c r="B18">
-        <v>23059.07907315761</v>
+        <v>12115.07907315761</v>
       </c>
       <c r="C18">
         <v>7413</v>
@@ -707,7 +707,7 @@
         <v>44377</v>
       </c>
       <c r="B19">
-        <v>25586.8417362342</v>
+        <v>19942.0417362342</v>
       </c>
       <c r="C19">
         <v>10588</v>
@@ -724,7 +724,7 @@
         <v>44408</v>
       </c>
       <c r="B20">
-        <v>23278.0677016509</v>
+        <v>17272.4677016509</v>
       </c>
       <c r="C20">
         <v>10602</v>
@@ -741,7 +741,7 @@
         <v>44439</v>
       </c>
       <c r="B21">
-        <v>21995.90426069828</v>
+        <v>18693.50426069828</v>
       </c>
       <c r="C21">
         <v>9429</v>
@@ -758,7 +758,7 @@
         <v>44469</v>
       </c>
       <c r="B22">
-        <v>11662.51018416592</v>
+        <v>3711.310184165921</v>
       </c>
       <c r="C22">
         <v>4083</v>
@@ -775,7 +775,7 @@
         <v>44500</v>
       </c>
       <c r="B23">
-        <v>28153.61859544036</v>
+        <v>25408.81859544036</v>
       </c>
       <c r="C23">
         <v>13024</v>
@@ -792,7 +792,7 @@
         <v>44530</v>
       </c>
       <c r="B24">
-        <v>23475.9361988595</v>
+        <v>16606.33619885951</v>
       </c>
       <c r="C24">
         <v>6849</v>
@@ -809,7 +809,7 @@
         <v>44561</v>
       </c>
       <c r="B25">
-        <v>15973.33497959356</v>
+        <v>8363.734979593557</v>
       </c>
       <c r="C25">
         <v>5238</v>
@@ -826,7 +826,7 @@
         <v>44592</v>
       </c>
       <c r="B26">
-        <v>19355.75462398761</v>
+        <v>14205.35462398761</v>
       </c>
       <c r="C26">
         <v>3489</v>
@@ -843,7 +843,7 @@
         <v>44620</v>
       </c>
       <c r="B27">
-        <v>23969.13432540124</v>
+        <v>15897.13432540124</v>
       </c>
       <c r="C27">
         <v>10091</v>
@@ -860,7 +860,7 @@
         <v>44651</v>
       </c>
       <c r="B28">
-        <v>28011.25851730144</v>
+        <v>25318.45851730145</v>
       </c>
       <c r="C28">
         <v>11131</v>
@@ -877,7 +877,7 @@
         <v>44681</v>
       </c>
       <c r="B29">
-        <v>14127.31614997417</v>
+        <v>11368.91614997417</v>
       </c>
       <c r="C29">
         <v>3199</v>
@@ -894,7 +894,7 @@
         <v>44712</v>
       </c>
       <c r="B30">
-        <v>25211.77921435846</v>
+        <v>14914.97921435846</v>
       </c>
       <c r="C30">
         <v>9145</v>
@@ -911,7 +911,7 @@
         <v>44742</v>
       </c>
       <c r="B31">
-        <v>19501.35876990029</v>
+        <v>13643.75876990029</v>
       </c>
       <c r="C31">
         <v>5718</v>
@@ -928,7 +928,7 @@
         <v>44773</v>
       </c>
       <c r="B32">
-        <v>23939.44742569692</v>
+        <v>20319.44742569692</v>
       </c>
       <c r="C32">
         <v>10742</v>
@@ -945,7 +945,7 @@
         <v>44804</v>
       </c>
       <c r="B33">
-        <v>18850.66251960217</v>
+        <v>11437.06251960217</v>
       </c>
       <c r="C33">
         <v>5092</v>
@@ -962,7 +962,7 @@
         <v>44834</v>
       </c>
       <c r="B34">
-        <v>24233.21425236989</v>
+        <v>14441.21425236989</v>
       </c>
       <c r="C34">
         <v>11291</v>
@@ -979,7 +979,7 @@
         <v>44865</v>
       </c>
       <c r="B35">
-        <v>16126.70353177607</v>
+        <v>11654.70353177607</v>
       </c>
       <c r="C35">
         <v>7641</v>
@@ -996,7 +996,7 @@
         <v>44895</v>
       </c>
       <c r="B36">
-        <v>31386.58785067385</v>
+        <v>23006.58785067385</v>
       </c>
       <c r="C36">
         <v>14241</v>
@@ -1013,7 +1013,7 @@
         <v>44926</v>
       </c>
       <c r="B37">
-        <v>14693.84896910398</v>
+        <v>11474.64896910398</v>
       </c>
       <c r="C37">
         <v>4650</v>
@@ -1030,7 +1030,7 @@
         <v>44957</v>
       </c>
       <c r="B38">
-        <v>24012.79068072772</v>
+        <v>21116.79068072772</v>
       </c>
       <c r="C38">
         <v>7093</v>
@@ -1047,7 +1047,7 @@
         <v>44985</v>
       </c>
       <c r="B39">
-        <v>19968.87984878441</v>
+        <v>12468.07984878441</v>
       </c>
       <c r="C39">
         <v>4362</v>
@@ -1064,7 +1064,7 @@
         <v>45016</v>
       </c>
       <c r="B40">
-        <v>32745.67318259205</v>
+        <v>25155.27318259205</v>
       </c>
       <c r="C40">
         <v>14096</v>
@@ -1081,7 +1081,7 @@
         <v>45046</v>
       </c>
       <c r="B41">
-        <v>28710.69724942467</v>
+        <v>20191.49724942466</v>
       </c>
       <c r="C41">
         <v>13528</v>
@@ -1098,7 +1098,7 @@
         <v>45077</v>
       </c>
       <c r="B42">
-        <v>14686.44703493291</v>
+        <v>5316.047034932908</v>
       </c>
       <c r="C42">
         <v>6095</v>
@@ -1115,7 +1115,7 @@
         <v>45107</v>
       </c>
       <c r="B43">
-        <v>27029.98206282103</v>
+        <v>15261.98206282103</v>
       </c>
       <c r="C43">
         <v>10920</v>
@@ -1132,7 +1132,7 @@
         <v>45138</v>
       </c>
       <c r="B44">
-        <v>26573.22980937499</v>
+        <v>19216.42980937499</v>
       </c>
       <c r="C44">
         <v>12807</v>
@@ -1149,7 +1149,7 @@
         <v>45169</v>
       </c>
       <c r="B45">
-        <v>28743.77539523179</v>
+        <v>23243.77539523179</v>
       </c>
       <c r="C45">
         <v>9662</v>
@@ -1166,7 +1166,7 @@
         <v>45199</v>
       </c>
       <c r="B46">
-        <v>25805.84781824834</v>
+        <v>15772.24781824834</v>
       </c>
       <c r="C46">
         <v>9356</v>
@@ -1183,7 +1183,7 @@
         <v>45230</v>
       </c>
       <c r="B47">
-        <v>20032.92569838882</v>
+        <v>15032.92569838882</v>
       </c>
       <c r="C47">
         <v>5902</v>
@@ -1200,7 +1200,7 @@
         <v>45260</v>
       </c>
       <c r="B48">
-        <v>13189.20463995007</v>
+        <v>6574.804639950074</v>
       </c>
       <c r="C48">
         <v>4117</v>
@@ -1217,7 +1217,7 @@
         <v>45291</v>
       </c>
       <c r="B49">
-        <v>30238.49035583191</v>
+        <v>27085.69035583191</v>
       </c>
       <c r="C49">
         <v>13767</v>
@@ -1234,7 +1234,7 @@
         <v>45322</v>
       </c>
       <c r="B50">
-        <v>30700.60215244205</v>
+        <v>28057.40215244205</v>
       </c>
       <c r="C50">
         <v>13805</v>
@@ -1251,7 +1251,7 @@
         <v>45351</v>
       </c>
       <c r="B51">
-        <v>24084.25971978603</v>
+        <v>12442.65971978603</v>
       </c>
       <c r="C51">
         <v>10597</v>
@@ -1268,7 +1268,7 @@
         <v>45382</v>
       </c>
       <c r="B52">
-        <v>17223.53343880632</v>
+        <v>6797.933438806323</v>
       </c>
       <c r="C52">
         <v>7068</v>
@@ -1285,7 +1285,7 @@
         <v>45412</v>
       </c>
       <c r="B53">
-        <v>21014.40249785926</v>
+        <v>11932.80249785926</v>
       </c>
       <c r="C53">
         <v>7191</v>
@@ -1302,7 +1302,7 @@
         <v>45443</v>
       </c>
       <c r="B54">
-        <v>29172.69486243113</v>
+        <v>22847.09486243113</v>
       </c>
       <c r="C54">
         <v>11711</v>
@@ -1319,7 +1319,7 @@
         <v>45473</v>
       </c>
       <c r="B55">
-        <v>30142.86781587759</v>
+        <v>26078.86781587759</v>
       </c>
       <c r="C55">
         <v>13765</v>
@@ -1336,7 +1336,7 @@
         <v>45504</v>
       </c>
       <c r="B56">
-        <v>30359.81777166135</v>
+        <v>26458.21777166134</v>
       </c>
       <c r="C56">
         <v>13645</v>
@@ -1353,7 +1353,7 @@
         <v>45535</v>
       </c>
       <c r="B57">
-        <v>26049.83187053042</v>
+        <v>21247.43187053042</v>
       </c>
       <c r="C57">
         <v>12359</v>
@@ -1370,7 +1370,7 @@
         <v>45565</v>
       </c>
       <c r="B58">
-        <v>26312.51722238317</v>
+        <v>18639.71722238317</v>
       </c>
       <c r="C58">
         <v>10704</v>
@@ -1387,7 +1387,7 @@
         <v>45596</v>
       </c>
       <c r="B59">
-        <v>18757.97189773978</v>
+        <v>9497.971897739782</v>
       </c>
       <c r="C59">
         <v>4010</v>
@@ -1404,7 +1404,7 @@
         <v>45626</v>
       </c>
       <c r="B60">
-        <v>14116.17790631904</v>
+        <v>5378.577906319037</v>
       </c>
       <c r="C60">
         <v>4940</v>
@@ -1421,7 +1421,7 @@
         <v>45657</v>
       </c>
       <c r="B61">
-        <v>29921.75883401286</v>
+        <v>24834.55883401286</v>
       </c>
       <c r="C61">
         <v>13783</v>

--- a/Touchstone2/reg_techgear_sales_data.xlsx
+++ b/Touchstone2/reg_techgear_sales_data.xlsx
@@ -418,7 +418,7 @@
         <v>43861</v>
       </c>
       <c r="B2">
-        <v>10707.15234596766</v>
+        <v>5295.952345967664</v>
       </c>
       <c r="C2">
         <v>6418</v>
@@ -435,7 +435,7 @@
         <v>43890</v>
       </c>
       <c r="B3">
-        <v>2608.457208367223</v>
+        <v>-2147.142791632776</v>
       </c>
       <c r="C3">
         <v>3443</v>
@@ -452,7 +452,7 @@
         <v>43921</v>
       </c>
       <c r="B4">
-        <v>14469.03798410574</v>
+        <v>9923.437984105742</v>
       </c>
       <c r="C4">
         <v>10315</v>
@@ -469,7 +469,7 @@
         <v>43951</v>
       </c>
       <c r="B5">
-        <v>17125.89319920146</v>
+        <v>12553.89319920146</v>
       </c>
       <c r="C5">
         <v>9032</v>
@@ -486,7 +486,7 @@
         <v>43982</v>
       </c>
       <c r="B6">
-        <v>7973.857990149967</v>
+        <v>5048.257990149968</v>
       </c>
       <c r="C6">
         <v>3618</v>
@@ -503,7 +503,7 @@
         <v>44012</v>
       </c>
       <c r="B7">
-        <v>10785.32212012359</v>
+        <v>8176.12212012359</v>
       </c>
       <c r="C7">
         <v>6344</v>
@@ -520,7 +520,7 @@
         <v>44043</v>
       </c>
       <c r="B8">
-        <v>21421.48841752559</v>
+        <v>16336.68841752559</v>
       </c>
       <c r="C8">
         <v>13899</v>
@@ -537,7 +537,7 @@
         <v>44074</v>
       </c>
       <c r="B9">
-        <v>9135.842791702302</v>
+        <v>4047.442791702304</v>
       </c>
       <c r="C9">
         <v>5875</v>
@@ -554,7 +554,7 @@
         <v>44104</v>
       </c>
       <c r="B10">
-        <v>6693.281148206443</v>
+        <v>1331.281148206443</v>
       </c>
       <c r="C10">
         <v>4739</v>
@@ -571,7 +571,7 @@
         <v>44135</v>
       </c>
       <c r="B11">
-        <v>10398.39850193837</v>
+        <v>4814.798501938374</v>
       </c>
       <c r="C11">
         <v>8873</v>
@@ -588,7 +588,7 @@
         <v>44165</v>
       </c>
       <c r="B12">
-        <v>25850.24357116088</v>
+        <v>22195.84357116088</v>
       </c>
       <c r="C12">
         <v>14828</v>
@@ -605,7 +605,7 @@
         <v>44196</v>
       </c>
       <c r="B13">
-        <v>11020.87350696297</v>
+        <v>7413.673506962974</v>
       </c>
       <c r="C13">
         <v>5905</v>
@@ -622,7 +622,7 @@
         <v>44227</v>
       </c>
       <c r="B14">
-        <v>15748.53772514699</v>
+        <v>10716.53772514699</v>
       </c>
       <c r="C14">
         <v>11066</v>
@@ -639,7 +639,7 @@
         <v>44255</v>
       </c>
       <c r="B15">
-        <v>20669.17501649283</v>
+        <v>16349.17501649283</v>
       </c>
       <c r="C15">
         <v>12139</v>
@@ -656,7 +656,7 @@
         <v>44286</v>
       </c>
       <c r="B16">
-        <v>10480.66323274542</v>
+        <v>5911.063232745426</v>
       </c>
       <c r="C16">
         <v>5852</v>
@@ -673,7 +673,7 @@
         <v>44316</v>
       </c>
       <c r="B17">
-        <v>19497.67432737427</v>
+        <v>14477.67432737427</v>
       </c>
       <c r="C17">
         <v>11739</v>
@@ -690,7 +690,7 @@
         <v>44347</v>
       </c>
       <c r="B18">
-        <v>12115.07907315761</v>
+        <v>6643.079073157605</v>
       </c>
       <c r="C18">
         <v>7413</v>
@@ -707,7 +707,7 @@
         <v>44377</v>
       </c>
       <c r="B19">
-        <v>19942.0417362342</v>
+        <v>17119.6417362342</v>
       </c>
       <c r="C19">
         <v>10588</v>
@@ -724,7 +724,7 @@
         <v>44408</v>
       </c>
       <c r="B20">
-        <v>17272.4677016509</v>
+        <v>14269.6677016509</v>
       </c>
       <c r="C20">
         <v>10602</v>
@@ -741,7 +741,7 @@
         <v>44439</v>
       </c>
       <c r="B21">
-        <v>18693.50426069828</v>
+        <v>17042.30426069828</v>
       </c>
       <c r="C21">
         <v>9429</v>
@@ -758,7 +758,7 @@
         <v>44469</v>
       </c>
       <c r="B22">
-        <v>3711.310184165921</v>
+        <v>-264.2898158340777</v>
       </c>
       <c r="C22">
         <v>4083</v>
@@ -775,7 +775,7 @@
         <v>44500</v>
       </c>
       <c r="B23">
-        <v>25408.81859544036</v>
+        <v>24036.41859544036</v>
       </c>
       <c r="C23">
         <v>13024</v>
@@ -792,7 +792,7 @@
         <v>44530</v>
       </c>
       <c r="B24">
-        <v>16606.33619885951</v>
+        <v>13171.53619885951</v>
       </c>
       <c r="C24">
         <v>6849</v>
@@ -809,7 +809,7 @@
         <v>44561</v>
       </c>
       <c r="B25">
-        <v>8363.734979593557</v>
+        <v>4558.934979593558</v>
       </c>
       <c r="C25">
         <v>5238</v>
@@ -826,7 +826,7 @@
         <v>44592</v>
       </c>
       <c r="B26">
-        <v>14205.35462398761</v>
+        <v>11630.15462398761</v>
       </c>
       <c r="C26">
         <v>3489</v>
@@ -843,7 +843,7 @@
         <v>44620</v>
       </c>
       <c r="B27">
-        <v>15897.13432540124</v>
+        <v>11861.13432540124</v>
       </c>
       <c r="C27">
         <v>10091</v>
@@ -860,7 +860,7 @@
         <v>44651</v>
       </c>
       <c r="B28">
-        <v>25318.45851730145</v>
+        <v>23972.05851730144</v>
       </c>
       <c r="C28">
         <v>11131</v>
@@ -877,7 +877,7 @@
         <v>44681</v>
       </c>
       <c r="B29">
-        <v>11368.91614997417</v>
+        <v>9989.716149974167</v>
       </c>
       <c r="C29">
         <v>3199</v>
@@ -894,7 +894,7 @@
         <v>44712</v>
       </c>
       <c r="B30">
-        <v>14914.97921435846</v>
+        <v>9766.57921435846</v>
       </c>
       <c r="C30">
         <v>9145</v>
@@ -911,7 +911,7 @@
         <v>44742</v>
       </c>
       <c r="B31">
-        <v>13643.75876990029</v>
+        <v>10714.95876990029</v>
       </c>
       <c r="C31">
         <v>5718</v>
@@ -928,7 +928,7 @@
         <v>44773</v>
       </c>
       <c r="B32">
-        <v>20319.44742569692</v>
+        <v>18509.44742569692</v>
       </c>
       <c r="C32">
         <v>10742</v>
@@ -945,7 +945,7 @@
         <v>44804</v>
       </c>
       <c r="B33">
-        <v>11437.06251960217</v>
+        <v>7730.262519602175</v>
       </c>
       <c r="C33">
         <v>5092</v>
@@ -962,7 +962,7 @@
         <v>44834</v>
       </c>
       <c r="B34">
-        <v>14441.21425236989</v>
+        <v>9545.214252369886</v>
       </c>
       <c r="C34">
         <v>11291</v>
@@ -979,7 +979,7 @@
         <v>44865</v>
       </c>
       <c r="B35">
-        <v>11654.70353177607</v>
+        <v>9418.703531776073</v>
       </c>
       <c r="C35">
         <v>7641</v>
@@ -996,7 +996,7 @@
         <v>44895</v>
       </c>
       <c r="B36">
-        <v>23006.58785067385</v>
+        <v>18816.58785067385</v>
       </c>
       <c r="C36">
         <v>14241</v>
@@ -1013,7 +1013,7 @@
         <v>44926</v>
       </c>
       <c r="B37">
-        <v>11474.64896910398</v>
+        <v>9865.04896910398</v>
       </c>
       <c r="C37">
         <v>4650</v>
@@ -1030,7 +1030,7 @@
         <v>44957</v>
       </c>
       <c r="B38">
-        <v>21116.79068072772</v>
+        <v>19668.79068072772</v>
       </c>
       <c r="C38">
         <v>7093</v>
@@ -1047,7 +1047,7 @@
         <v>44985</v>
       </c>
       <c r="B39">
-        <v>12468.07984878441</v>
+        <v>8717.679848784412</v>
       </c>
       <c r="C39">
         <v>4362</v>
@@ -1064,7 +1064,7 @@
         <v>45016</v>
       </c>
       <c r="B40">
-        <v>25155.27318259205</v>
+        <v>21360.07318259204</v>
       </c>
       <c r="C40">
         <v>14096</v>
@@ -1081,7 +1081,7 @@
         <v>45046</v>
       </c>
       <c r="B41">
-        <v>20191.49724942466</v>
+        <v>15931.89724942467</v>
       </c>
       <c r="C41">
         <v>13528</v>
@@ -1098,7 +1098,7 @@
         <v>45077</v>
       </c>
       <c r="B42">
-        <v>5316.047034932908</v>
+        <v>630.8470349329073</v>
       </c>
       <c r="C42">
         <v>6095</v>
@@ -1115,7 +1115,7 @@
         <v>45107</v>
       </c>
       <c r="B43">
-        <v>15261.98206282103</v>
+        <v>9377.982062821025</v>
       </c>
       <c r="C43">
         <v>10920</v>
@@ -1132,7 +1132,7 @@
         <v>45138</v>
       </c>
       <c r="B44">
-        <v>19216.42980937499</v>
+        <v>15538.02980937499</v>
       </c>
       <c r="C44">
         <v>12807</v>
@@ -1149,7 +1149,7 @@
         <v>45169</v>
       </c>
       <c r="B45">
-        <v>23243.77539523179</v>
+        <v>20493.77539523179</v>
       </c>
       <c r="C45">
         <v>9662</v>
@@ -1166,7 +1166,7 @@
         <v>45199</v>
       </c>
       <c r="B46">
-        <v>15772.24781824834</v>
+        <v>10755.44781824835</v>
       </c>
       <c r="C46">
         <v>9356</v>
@@ -1183,7 +1183,7 @@
         <v>45230</v>
       </c>
       <c r="B47">
-        <v>15032.92569838882</v>
+        <v>12532.92569838882</v>
       </c>
       <c r="C47">
         <v>5902</v>
@@ -1200,7 +1200,7 @@
         <v>45260</v>
       </c>
       <c r="B48">
-        <v>6574.804639950074</v>
+        <v>3267.604639950074</v>
       </c>
       <c r="C48">
         <v>4117</v>
@@ -1217,7 +1217,7 @@
         <v>45291</v>
       </c>
       <c r="B49">
-        <v>27085.69035583191</v>
+        <v>25509.29035583191</v>
       </c>
       <c r="C49">
         <v>13767</v>
@@ -1234,7 +1234,7 @@
         <v>45322</v>
       </c>
       <c r="B50">
-        <v>28057.40215244205</v>
+        <v>26735.80215244205</v>
       </c>
       <c r="C50">
         <v>13805</v>
@@ -1251,7 +1251,7 @@
         <v>45351</v>
       </c>
       <c r="B51">
-        <v>12442.65971978603</v>
+        <v>6621.859719786033</v>
       </c>
       <c r="C51">
         <v>10597</v>
@@ -1268,7 +1268,7 @@
         <v>45382</v>
       </c>
       <c r="B52">
-        <v>6797.933438806323</v>
+        <v>1585.133438806324</v>
       </c>
       <c r="C52">
         <v>7068</v>
@@ -1285,7 +1285,7 @@
         <v>45412</v>
       </c>
       <c r="B53">
-        <v>11932.80249785926</v>
+        <v>7392.002497859261</v>
       </c>
       <c r="C53">
         <v>7191</v>
@@ -1302,7 +1302,7 @@
         <v>45443</v>
       </c>
       <c r="B54">
-        <v>22847.09486243113</v>
+        <v>19684.29486243112</v>
       </c>
       <c r="C54">
         <v>11711</v>
@@ -1319,7 +1319,7 @@
         <v>45473</v>
       </c>
       <c r="B55">
-        <v>26078.86781587759</v>
+        <v>24046.86781587759</v>
       </c>
       <c r="C55">
         <v>13765</v>
@@ -1336,7 +1336,7 @@
         <v>45504</v>
       </c>
       <c r="B56">
-        <v>26458.21777166134</v>
+        <v>24507.41777166135</v>
       </c>
       <c r="C56">
         <v>13645</v>
@@ -1353,7 +1353,7 @@
         <v>45535</v>
       </c>
       <c r="B57">
-        <v>21247.43187053042</v>
+        <v>18846.23187053042</v>
       </c>
       <c r="C57">
         <v>12359</v>
@@ -1370,7 +1370,7 @@
         <v>45565</v>
       </c>
       <c r="B58">
-        <v>18639.71722238317</v>
+        <v>14803.31722238317</v>
       </c>
       <c r="C58">
         <v>10704</v>
@@ -1387,7 +1387,7 @@
         <v>45596</v>
       </c>
       <c r="B59">
-        <v>9497.971897739782</v>
+        <v>4867.971897739782</v>
       </c>
       <c r="C59">
         <v>4010</v>
@@ -1404,7 +1404,7 @@
         <v>45626</v>
       </c>
       <c r="B60">
-        <v>5378.577906319037</v>
+        <v>1009.777906319037</v>
       </c>
       <c r="C60">
         <v>4940</v>
@@ -1421,7 +1421,7 @@
         <v>45657</v>
       </c>
       <c r="B61">
-        <v>24834.55883401286</v>
+        <v>22290.95883401286</v>
       </c>
       <c r="C61">
         <v>13783</v>

--- a/Touchstone2/reg_techgear_sales_data.xlsx
+++ b/Touchstone2/reg_techgear_sales_data.xlsx
@@ -418,7 +418,7 @@
         <v>43861</v>
       </c>
       <c r="B2">
-        <v>5295.952345967664</v>
+        <v>187523.4001659137</v>
       </c>
       <c r="C2">
         <v>6418</v>
@@ -435,7 +435,7 @@
         <v>43890</v>
       </c>
       <c r="B3">
-        <v>-2147.142791632776</v>
+        <v>105562.7767840706</v>
       </c>
       <c r="C3">
         <v>3443</v>
@@ -452,7 +452,7 @@
         <v>43921</v>
       </c>
       <c r="B4">
-        <v>9923.437984105742</v>
+        <v>205210.7663225566</v>
       </c>
       <c r="C4">
         <v>10315</v>
@@ -469,7 +469,7 @@
         <v>43951</v>
       </c>
       <c r="B5">
-        <v>12553.89319920146</v>
+        <v>228811.9890069297</v>
       </c>
       <c r="C5">
         <v>9032</v>
@@ -486,7 +486,7 @@
         <v>43982</v>
       </c>
       <c r="B6">
-        <v>5048.257990149968</v>
+        <v>120416.8967446932</v>
       </c>
       <c r="C6">
         <v>3618</v>
@@ -503,7 +503,7 @@
         <v>44012</v>
       </c>
       <c r="B7">
-        <v>8176.12212012359</v>
+        <v>139393.1624332218</v>
       </c>
       <c r="C7">
         <v>6344</v>
@@ -520,7 +520,7 @@
         <v>44043</v>
       </c>
       <c r="B8">
-        <v>16336.68841752559</v>
+        <v>275159.8463265749</v>
       </c>
       <c r="C8">
         <v>13899</v>
@@ -537,7 +537,7 @@
         <v>44074</v>
       </c>
       <c r="B9">
-        <v>4047.442791702304</v>
+        <v>168214.0150567523</v>
       </c>
       <c r="C9">
         <v>5875</v>
@@ -554,7 +554,7 @@
         <v>44104</v>
       </c>
       <c r="B10">
-        <v>1331.281148206443</v>
+        <v>151705.3271741188</v>
       </c>
       <c r="C10">
         <v>4739</v>
@@ -571,7 +571,7 @@
         <v>44135</v>
       </c>
       <c r="B11">
-        <v>4814.798501938374</v>
+        <v>187837.3638573977</v>
       </c>
       <c r="C11">
         <v>8873</v>
@@ -588,7 +588,7 @@
         <v>44165</v>
       </c>
       <c r="B12">
-        <v>22195.84357116088</v>
+        <v>288816.8084868879</v>
       </c>
       <c r="C12">
         <v>14828</v>
@@ -605,7 +605,7 @@
         <v>44196</v>
       </c>
       <c r="B13">
-        <v>7413.673506962974</v>
+        <v>158830.0785836617</v>
       </c>
       <c r="C13">
         <v>5905</v>
@@ -622,7 +622,7 @@
         <v>44227</v>
       </c>
       <c r="B14">
-        <v>10716.53772514699</v>
+        <v>224828.4016010703</v>
       </c>
       <c r="C14">
         <v>11066</v>
@@ -639,7 +639,7 @@
         <v>44255</v>
       </c>
       <c r="B15">
-        <v>16349.17501649283</v>
+        <v>255284.2746951019</v>
       </c>
       <c r="C15">
         <v>12139</v>
@@ -656,7 +656,7 @@
         <v>44286</v>
       </c>
       <c r="B16">
-        <v>5911.063232745426</v>
+        <v>170889.9193569951</v>
       </c>
       <c r="C16">
         <v>5852</v>
@@ -673,7 +673,7 @@
         <v>44316</v>
       </c>
       <c r="B17">
-        <v>14477.67432737427</v>
+        <v>257274.5142980206</v>
       </c>
       <c r="C17">
         <v>11739</v>
@@ -690,7 +690,7 @@
         <v>44347</v>
       </c>
       <c r="B18">
-        <v>6643.079073157605</v>
+        <v>200845.6489483423</v>
       </c>
       <c r="C18">
         <v>7413</v>
@@ -707,7 +707,7 @@
         <v>44377</v>
       </c>
       <c r="B19">
-        <v>17119.6417362342</v>
+        <v>222862.5790626067</v>
       </c>
       <c r="C19">
         <v>10588</v>
@@ -724,7 +724,7 @@
         <v>44408</v>
       </c>
       <c r="B20">
-        <v>14269.6677016509</v>
+        <v>202753.0500662491</v>
       </c>
       <c r="C20">
         <v>10602</v>
@@ -741,7 +741,7 @@
         <v>44439</v>
       </c>
       <c r="B21">
-        <v>17042.30426069828</v>
+        <v>191585.3469876064</v>
       </c>
       <c r="C21">
         <v>9429</v>
@@ -758,7 +758,7 @@
         <v>44469</v>
       </c>
       <c r="B22">
-        <v>-264.2898158340777</v>
+        <v>101581.0049861069</v>
       </c>
       <c r="C22">
         <v>4083</v>
@@ -775,7 +775,7 @@
         <v>44500</v>
       </c>
       <c r="B23">
-        <v>24036.41859544036</v>
+        <v>245219.3246358919</v>
       </c>
       <c r="C23">
         <v>13024</v>
@@ -792,7 +792,7 @@
         <v>44530</v>
       </c>
       <c r="B24">
-        <v>13171.53619885951</v>
+        <v>204476.4938604359</v>
       </c>
       <c r="C24">
         <v>6849</v>
@@ -809,7 +809,7 @@
         <v>44561</v>
       </c>
       <c r="B25">
-        <v>4558.934979593558</v>
+        <v>139128.489028873</v>
       </c>
       <c r="C25">
         <v>5238</v>
@@ -826,7 +826,7 @@
         <v>44592</v>
       </c>
       <c r="B26">
-        <v>11630.15462398761</v>
+        <v>168589.5211168695</v>
       </c>
       <c r="C26">
         <v>3489</v>
@@ -843,7 +843,7 @@
         <v>44620</v>
       </c>
       <c r="B27">
-        <v>11861.13432540124</v>
+        <v>208772.2724329935</v>
       </c>
       <c r="C27">
         <v>10091</v>
@@ -860,7 +860,7 @@
         <v>44651</v>
       </c>
       <c r="B28">
-        <v>23972.05851730144</v>
+        <v>243979.3617480665</v>
       </c>
       <c r="C28">
         <v>11131</v>
@@ -877,7 +877,7 @@
         <v>44681</v>
       </c>
       <c r="B29">
-        <v>9989.716149974167</v>
+        <v>123049.5793452091</v>
       </c>
       <c r="C29">
         <v>3199</v>
@@ -894,7 +894,7 @@
         <v>44712</v>
       </c>
       <c r="B30">
-        <v>9766.57921435846</v>
+        <v>219595.7670896158</v>
       </c>
       <c r="C30">
         <v>9145</v>
@@ -911,7 +911,7 @@
         <v>44742</v>
       </c>
       <c r="B31">
-        <v>10714.95876990029</v>
+        <v>169857.7399855685</v>
       </c>
       <c r="C31">
         <v>5718</v>
@@ -928,7 +928,7 @@
         <v>44773</v>
       </c>
       <c r="B32">
-        <v>18509.44742569692</v>
+        <v>208513.6981587364</v>
       </c>
       <c r="C32">
         <v>10742</v>
@@ -945,7 +945,7 @@
         <v>44804</v>
       </c>
       <c r="B33">
-        <v>7730.262519602175</v>
+        <v>164190.1454452684</v>
       </c>
       <c r="C33">
         <v>5092</v>
@@ -962,7 +962,7 @@
         <v>44834</v>
       </c>
       <c r="B34">
-        <v>9545.214252369886</v>
+        <v>211072.4208534042</v>
       </c>
       <c r="C34">
         <v>11291</v>
@@ -979,7 +979,7 @@
         <v>44865</v>
       </c>
       <c r="B35">
-        <v>9418.703531776073</v>
+        <v>140464.336236545</v>
       </c>
       <c r="C35">
         <v>7641</v>
@@ -996,7 +996,7 @@
         <v>44895</v>
       </c>
       <c r="B36">
-        <v>18816.58785067385</v>
+        <v>273378.6368979879</v>
       </c>
       <c r="C36">
         <v>14241</v>
@@ -1013,7 +1013,7 @@
         <v>44926</v>
       </c>
       <c r="B37">
-        <v>9865.04896910398</v>
+        <v>127984.1064938287</v>
       </c>
       <c r="C37">
         <v>4650</v>
@@ -1030,7 +1030,7 @@
         <v>44957</v>
       </c>
       <c r="B38">
-        <v>19668.79068072772</v>
+        <v>209152.5213140719</v>
       </c>
       <c r="C38">
         <v>7093</v>
@@ -1047,7 +1047,7 @@
         <v>44985</v>
       </c>
       <c r="B39">
-        <v>8717.679848784412</v>
+        <v>173929.8702813017</v>
       </c>
       <c r="C39">
         <v>4362</v>
@@ -1064,7 +1064,7 @@
         <v>45016</v>
       </c>
       <c r="B40">
-        <v>21360.07318259204</v>
+        <v>285216.3332170502</v>
       </c>
       <c r="C40">
         <v>14096</v>
@@ -1081,7 +1081,7 @@
         <v>45046</v>
       </c>
       <c r="B41">
-        <v>15931.89724942467</v>
+        <v>250071.5055673061</v>
       </c>
       <c r="C41">
         <v>13528</v>
@@ -1098,7 +1098,7 @@
         <v>45077</v>
       </c>
       <c r="B42">
-        <v>630.8470349329073</v>
+        <v>127919.635303659</v>
       </c>
       <c r="C42">
         <v>6095</v>
@@ -1115,7 +1115,7 @@
         <v>45107</v>
       </c>
       <c r="B43">
-        <v>9377.982062821025</v>
+        <v>235432.3982864047</v>
       </c>
       <c r="C43">
         <v>10920</v>
@@ -1132,7 +1132,7 @@
         <v>45138</v>
       </c>
       <c r="B44">
-        <v>15538.02980937499</v>
+        <v>231454.0649600415</v>
       </c>
       <c r="C44">
         <v>12807</v>
@@ -1149,7 +1149,7 @@
         <v>45169</v>
       </c>
       <c r="B45">
-        <v>20493.77539523179</v>
+        <v>250359.6177525136</v>
       </c>
       <c r="C45">
         <v>9662</v>
@@ -1166,7 +1166,7 @@
         <v>45199</v>
       </c>
       <c r="B46">
-        <v>10755.44781824835</v>
+        <v>224770.1322014902</v>
       </c>
       <c r="C46">
         <v>9356</v>
@@ -1183,7 +1183,7 @@
         <v>45230</v>
       </c>
       <c r="B47">
-        <v>12532.92569838882</v>
+        <v>174487.7126038608</v>
       </c>
       <c r="C47">
         <v>5902</v>
@@ -1200,7 +1200,7 @@
         <v>45260</v>
       </c>
       <c r="B48">
-        <v>3267.604639950074</v>
+        <v>114878.5845531393</v>
       </c>
       <c r="C48">
         <v>4117</v>
@@ -1217,7 +1217,7 @@
         <v>45291</v>
       </c>
       <c r="B49">
-        <v>25509.29035583191</v>
+        <v>263378.6544322563</v>
       </c>
       <c r="C49">
         <v>13767</v>
@@ -1234,7 +1234,7 @@
         <v>45322</v>
       </c>
       <c r="B50">
-        <v>26735.80215244205</v>
+        <v>267403.6696283267</v>
       </c>
       <c r="C50">
         <v>13805</v>
@@ -1251,7 +1251,7 @@
         <v>45351</v>
       </c>
       <c r="B51">
-        <v>6621.859719786033</v>
+        <v>209775.0199613006</v>
       </c>
       <c r="C51">
         <v>10597</v>
@@ -1268,7 +1268,7 @@
         <v>45382</v>
       </c>
       <c r="B52">
-        <v>1585.133438806324</v>
+        <v>150017.7756329985</v>
       </c>
       <c r="C52">
         <v>7068</v>
@@ -1285,7 +1285,7 @@
         <v>45412</v>
       </c>
       <c r="B53">
-        <v>7392.002497859261</v>
+        <v>183036.4210796841</v>
       </c>
       <c r="C53">
         <v>7191</v>
@@ -1302,7 +1302,7 @@
         <v>45443</v>
       </c>
       <c r="B54">
-        <v>19684.29486243112</v>
+        <v>254095.5262188889</v>
       </c>
       <c r="C54">
         <v>11711</v>
@@ -1319,7 +1319,7 @@
         <v>45473</v>
       </c>
       <c r="B55">
-        <v>24046.86781587759</v>
+        <v>262545.7776712077</v>
       </c>
       <c r="C55">
         <v>13765</v>
@@ -1336,7 +1336,7 @@
         <v>45504</v>
       </c>
       <c r="B56">
-        <v>24507.41777166135</v>
+        <v>264435.4218551953</v>
       </c>
       <c r="C56">
         <v>13645</v>
@@ -1353,7 +1353,7 @@
         <v>45535</v>
       </c>
       <c r="B57">
-        <v>18846.23187053042</v>
+        <v>226895.2446206884</v>
       </c>
       <c r="C57">
         <v>12359</v>
@@ -1370,7 +1370,7 @@
         <v>45565</v>
       </c>
       <c r="B58">
-        <v>14803.31722238317</v>
+        <v>229183.2462271144</v>
       </c>
       <c r="C58">
         <v>10704</v>
@@ -1387,7 +1387,7 @@
         <v>45596</v>
       </c>
       <c r="B59">
-        <v>4867.971897739782</v>
+        <v>163382.8058268771</v>
       </c>
       <c r="C59">
         <v>4010</v>
@@ -1404,7 +1404,7 @@
         <v>45626</v>
       </c>
       <c r="B60">
-        <v>1009.777906319037</v>
+        <v>122952.5647260233</v>
       </c>
       <c r="C60">
         <v>4940</v>
@@ -1421,7 +1421,7 @@
         <v>45657</v>
       </c>
       <c r="B61">
-        <v>22290.95883401286</v>
+        <v>260619.9081770256</v>
       </c>
       <c r="C61">
         <v>13783</v>

--- a/Touchstone2/reg_techgear_sales_data.xlsx
+++ b/Touchstone2/reg_techgear_sales_data.xlsx
@@ -418,7 +418,7 @@
         <v>43861</v>
       </c>
       <c r="B2">
-        <v>187523.4001659137</v>
+        <v>139359.0602093585</v>
       </c>
       <c r="C2">
         <v>6418</v>
@@ -435,7 +435,7 @@
         <v>43890</v>
       </c>
       <c r="B3">
-        <v>105562.7767840706</v>
+        <v>115673.3990022653</v>
       </c>
       <c r="C3">
         <v>3443</v>
@@ -452,7 +452,7 @@
         <v>43921</v>
       </c>
       <c r="B4">
-        <v>205210.7663225566</v>
+        <v>122541.2054116318</v>
       </c>
       <c r="C4">
         <v>10315</v>
@@ -469,7 +469,7 @@
         <v>43951</v>
       </c>
       <c r="B5">
-        <v>228811.9890069297</v>
+        <v>125825.7236899286</v>
       </c>
       <c r="C5">
         <v>9032</v>
@@ -486,7 +486,7 @@
         <v>43982</v>
       </c>
       <c r="B6">
-        <v>120416.8967446932</v>
+        <v>77530.33744852078</v>
       </c>
       <c r="C6">
         <v>3618</v>
@@ -503,7 +503,7 @@
         <v>44012</v>
       </c>
       <c r="B7">
-        <v>139393.1624332218</v>
+        <v>72819.35486649394</v>
       </c>
       <c r="C7">
         <v>6344</v>
@@ -520,7 +520,7 @@
         <v>44043</v>
       </c>
       <c r="B8">
-        <v>275159.8463265749</v>
+        <v>142313.1984086125</v>
       </c>
       <c r="C8">
         <v>13899</v>
@@ -537,7 +537,7 @@
         <v>44074</v>
       </c>
       <c r="B9">
-        <v>168214.0150567523</v>
+        <v>130113.1432004985</v>
       </c>
       <c r="C9">
         <v>5875</v>
@@ -554,7 +554,7 @@
         <v>44104</v>
       </c>
       <c r="B10">
-        <v>151705.3271741188</v>
+        <v>134175.4533029044</v>
       </c>
       <c r="C10">
         <v>4739</v>
@@ -571,7 +571,7 @@
         <v>44135</v>
       </c>
       <c r="B11">
-        <v>187837.3638573977</v>
+        <v>143149.1363689603</v>
       </c>
       <c r="C11">
         <v>8873</v>
@@ -588,7 +588,7 @@
         <v>44165</v>
       </c>
       <c r="B12">
-        <v>288816.8084868879</v>
+        <v>112734.0275924455</v>
       </c>
       <c r="C12">
         <v>14828</v>
@@ -605,7 +605,7 @@
         <v>44196</v>
       </c>
       <c r="B13">
-        <v>158830.0785836617</v>
+        <v>96782.47205161542</v>
       </c>
       <c r="C13">
         <v>5905</v>
@@ -622,7 +622,7 @@
         <v>44227</v>
       </c>
       <c r="B14">
-        <v>224828.4016010703</v>
+        <v>135384.9215898318</v>
       </c>
       <c r="C14">
         <v>11066</v>
@@ -639,7 +639,7 @@
         <v>44255</v>
       </c>
       <c r="B15">
-        <v>255284.2746951019</v>
+        <v>123377.6762675736</v>
       </c>
       <c r="C15">
         <v>12139</v>
@@ -656,7 +656,7 @@
         <v>44286</v>
       </c>
       <c r="B16">
-        <v>170889.9193569951</v>
+        <v>119123.4334449998</v>
       </c>
       <c r="C16">
         <v>5852</v>
@@ -673,7 +673,7 @@
         <v>44316</v>
       </c>
       <c r="B17">
-        <v>257274.5142980206</v>
+        <v>138848.756799695</v>
       </c>
       <c r="C17">
         <v>11739</v>
@@ -690,7 +690,7 @@
         <v>44347</v>
       </c>
       <c r="B18">
-        <v>200845.6489483423</v>
+        <v>142212.5139911933</v>
       </c>
       <c r="C18">
         <v>7413</v>
@@ -707,7 +707,7 @@
         <v>44377</v>
       </c>
       <c r="B19">
-        <v>222862.5790626067</v>
+        <v>87044.92922027364</v>
       </c>
       <c r="C19">
         <v>10588</v>
@@ -724,7 +724,7 @@
         <v>44408</v>
       </c>
       <c r="B20">
-        <v>202753.0500662491</v>
+        <v>88664.38611756417</v>
       </c>
       <c r="C20">
         <v>10602</v>
@@ -741,7 +741,7 @@
         <v>44439</v>
       </c>
       <c r="B21">
-        <v>191585.3469876064</v>
+        <v>57950.97585000026</v>
       </c>
       <c r="C21">
         <v>9429</v>
@@ -758,7 +758,7 @@
         <v>44469</v>
       </c>
       <c r="B22">
-        <v>101581.0049861069</v>
+        <v>98231.66147439665</v>
       </c>
       <c r="C22">
         <v>4083</v>
@@ -775,7 +775,7 @@
         <v>44500</v>
       </c>
       <c r="B23">
-        <v>245219.3246358919</v>
+        <v>58037.78783548278</v>
       </c>
       <c r="C23">
         <v>13024</v>
@@ -792,7 +792,7 @@
         <v>44530</v>
       </c>
       <c r="B24">
-        <v>204476.4938604359</v>
+        <v>98269.10473988086</v>
       </c>
       <c r="C24">
         <v>6849</v>
@@ -809,7 +809,7 @@
         <v>44561</v>
       </c>
       <c r="B25">
-        <v>139128.489028873</v>
+        <v>98823.29645184174</v>
       </c>
       <c r="C25">
         <v>5238</v>
@@ -826,7 +826,7 @@
         <v>44592</v>
       </c>
       <c r="B26">
-        <v>168589.5211168695</v>
+        <v>75431.03342532631</v>
       </c>
       <c r="C26">
         <v>3489</v>
@@ -843,7 +843,7 @@
         <v>44620</v>
       </c>
       <c r="B27">
-        <v>208772.2724329935</v>
+        <v>111853.5026238647</v>
       </c>
       <c r="C27">
         <v>10091</v>
@@ -860,7 +860,7 @@
         <v>44651</v>
       </c>
       <c r="B28">
-        <v>243979.3617480665</v>
+        <v>57329.27474055495</v>
       </c>
       <c r="C28">
         <v>11131</v>
@@ -877,7 +877,7 @@
         <v>44681</v>
       </c>
       <c r="B29">
-        <v>123049.5793452091</v>
+        <v>44159.55617902292</v>
       </c>
       <c r="C29">
         <v>3199</v>
@@ -894,7 +894,7 @@
         <v>44712</v>
       </c>
       <c r="B30">
-        <v>219595.7670896158</v>
+        <v>137318.7865849752</v>
       </c>
       <c r="C30">
         <v>9145</v>
@@ -911,7 +911,7 @@
         <v>44742</v>
       </c>
       <c r="B31">
-        <v>169857.7399855685</v>
+        <v>83276.3185995682</v>
       </c>
       <c r="C31">
         <v>5718</v>
@@ -928,7 +928,7 @@
         <v>44773</v>
       </c>
       <c r="B32">
-        <v>208513.6981587364</v>
+        <v>63352.40744061733</v>
       </c>
       <c r="C32">
         <v>10742</v>
@@ -945,7 +945,7 @@
         <v>44804</v>
       </c>
       <c r="B33">
-        <v>164190.1454452684</v>
+        <v>99566.66262087677</v>
       </c>
       <c r="C33">
         <v>5092</v>
@@ -962,7 +962,7 @@
         <v>44834</v>
       </c>
       <c r="B34">
-        <v>211072.4208534042</v>
+        <v>130844.1823369281</v>
       </c>
       <c r="C34">
         <v>11291</v>
@@ -979,7 +979,7 @@
         <v>44865</v>
       </c>
       <c r="B35">
-        <v>140464.336236545</v>
+        <v>64815.86297562251</v>
       </c>
       <c r="C35">
         <v>7641</v>
@@ -996,7 +996,7 @@
         <v>44895</v>
       </c>
       <c r="B36">
-        <v>273378.6368979879</v>
+        <v>122624.3240178101</v>
       </c>
       <c r="C36">
         <v>14241</v>
@@ -1013,7 +1013,7 @@
         <v>44926</v>
       </c>
       <c r="B37">
-        <v>127984.1064938287</v>
+        <v>49743.07573154371</v>
       </c>
       <c r="C37">
         <v>4650</v>
@@ -1030,7 +1030,7 @@
         <v>44957</v>
       </c>
       <c r="B38">
-        <v>209152.5213140719</v>
+        <v>55543.15869266406</v>
       </c>
       <c r="C38">
         <v>7093</v>
@@ -1047,7 +1047,7 @@
         <v>44985</v>
       </c>
       <c r="B39">
-        <v>173929.8702813017</v>
+        <v>101634.2750089819</v>
       </c>
       <c r="C39">
         <v>4362</v>
@@ -1064,7 +1064,7 @@
         <v>45016</v>
       </c>
       <c r="B40">
-        <v>285216.3332170502</v>
+        <v>115386.5935409489</v>
       </c>
       <c r="C40">
         <v>14096</v>
@@ -1081,7 +1081,7 @@
         <v>45046</v>
       </c>
       <c r="B41">
-        <v>250071.5055673061</v>
+        <v>121463.9814922727</v>
       </c>
       <c r="C41">
         <v>13528</v>
@@ -1098,7 +1098,7 @@
         <v>45077</v>
       </c>
       <c r="B42">
-        <v>127919.635303659</v>
+        <v>116707.2206602949</v>
       </c>
       <c r="C42">
         <v>6095</v>
@@ -1115,7 +1115,7 @@
         <v>45107</v>
       </c>
       <c r="B43">
-        <v>235432.3982864047</v>
+        <v>155154.7647853579</v>
       </c>
       <c r="C43">
         <v>10920</v>
@@ -1132,7 +1132,7 @@
         <v>45138</v>
       </c>
       <c r="B44">
-        <v>231454.0649600415</v>
+        <v>106670.8166153878</v>
       </c>
       <c r="C44">
         <v>12807</v>
@@ -1149,7 +1149,7 @@
         <v>45169</v>
       </c>
       <c r="B45">
-        <v>250359.6177525136</v>
+        <v>88625.34447867441</v>
       </c>
       <c r="C45">
         <v>9662</v>
@@ -1166,7 +1166,7 @@
         <v>45199</v>
       </c>
       <c r="B46">
-        <v>224770.1322014902</v>
+        <v>135047.249919272</v>
       </c>
       <c r="C46">
         <v>9356</v>
@@ -1183,7 +1183,7 @@
         <v>45230</v>
       </c>
       <c r="B47">
-        <v>174487.7126038608</v>
+        <v>74470.71577424575</v>
       </c>
       <c r="C47">
         <v>5902</v>
@@ -1200,7 +1200,7 @@
         <v>45260</v>
       </c>
       <c r="B48">
-        <v>114878.5845531393</v>
+        <v>85203.86837549969</v>
       </c>
       <c r="C48">
         <v>4117</v>
@@ -1217,7 +1217,7 @@
         <v>45291</v>
       </c>
       <c r="B49">
-        <v>263378.6544322563</v>
+        <v>64564.78326606426</v>
       </c>
       <c r="C49">
         <v>13767</v>
@@ -1234,7 +1234,7 @@
         <v>45322</v>
       </c>
       <c r="B50">
-        <v>267403.6696283267</v>
+        <v>59478.59549814306</v>
       </c>
       <c r="C50">
         <v>13805</v>
@@ -1251,7 +1251,7 @@
         <v>45351</v>
       </c>
       <c r="B51">
-        <v>209775.0199613006</v>
+        <v>150832.8551092052</v>
       </c>
       <c r="C51">
         <v>10597</v>
@@ -1268,7 +1268,7 @@
         <v>45382</v>
       </c>
       <c r="B52">
-        <v>150017.7756329985</v>
+        <v>130732.8582817771</v>
       </c>
       <c r="C52">
         <v>7068</v>
@@ -1285,7 +1285,7 @@
         <v>45412</v>
       </c>
       <c r="B53">
-        <v>183036.4210796841</v>
+        <v>119890.8493684397</v>
       </c>
       <c r="C53">
         <v>7191</v>
@@ -1302,7 +1302,7 @@
         <v>45443</v>
       </c>
       <c r="B54">
-        <v>254095.5262188889</v>
+        <v>98043.03184319925</v>
       </c>
       <c r="C54">
         <v>11711</v>
@@ -1319,7 +1319,7 @@
         <v>45473</v>
       </c>
       <c r="B55">
-        <v>262545.7776712077</v>
+        <v>74389.90358953411</v>
       </c>
       <c r="C55">
         <v>13765</v>
@@ -1336,7 +1336,7 @@
         <v>45504</v>
       </c>
       <c r="B56">
-        <v>264435.4218551953</v>
+        <v>72838.71412365402</v>
       </c>
       <c r="C56">
         <v>13645</v>
@@ -1353,7 +1353,7 @@
         <v>45535</v>
       </c>
       <c r="B57">
-        <v>226895.2446206884</v>
+        <v>78336.24048258949</v>
       </c>
       <c r="C57">
         <v>12359</v>
@@ -1370,7 +1370,7 @@
         <v>45565</v>
       </c>
       <c r="B58">
-        <v>229183.2462271144</v>
+        <v>109850.5723611902</v>
       </c>
       <c r="C58">
         <v>10704</v>
@@ -1387,7 +1387,7 @@
         <v>45596</v>
       </c>
       <c r="B59">
-        <v>163382.8058268771</v>
+        <v>119576.7591182268</v>
       </c>
       <c r="C59">
         <v>4010</v>
@@ -1404,7 +1404,7 @@
         <v>45626</v>
       </c>
       <c r="B60">
-        <v>122952.5647260233</v>
+        <v>109247.3048196805</v>
       </c>
       <c r="C60">
         <v>4940</v>
@@ -1421,7 +1421,7 @@
         <v>45657</v>
       </c>
       <c r="B61">
-        <v>260619.9081770256</v>
+        <v>85308.94396879274</v>
       </c>
       <c r="C61">
         <v>13783</v>

--- a/Touchstone2/reg_techgear_sales_data.xlsx
+++ b/Touchstone2/reg_techgear_sales_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Touchstones\Touchstone2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED6558D-19D1-4969-97BC-371922D04449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92BF3D9-3C8C-41C3-A668-D2761AA7ED39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,13 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -422,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -443,19 +442,19 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43861</v>
       </c>
       <c r="B2">
@@ -472,7 +471,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>43890</v>
       </c>
       <c r="B3">
@@ -489,7 +488,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>43921</v>
       </c>
       <c r="B4">
@@ -506,7 +505,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>43951</v>
       </c>
       <c r="B5">
@@ -523,7 +522,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>43982</v>
       </c>
       <c r="B6">
@@ -540,7 +539,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>44012</v>
       </c>
       <c r="B7">
@@ -557,7 +556,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>44043</v>
       </c>
       <c r="B8">
@@ -574,7 +573,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>44074</v>
       </c>
       <c r="B9">
@@ -591,7 +590,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>44104</v>
       </c>
       <c r="B10">
@@ -608,7 +607,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>44135</v>
       </c>
       <c r="B11">
@@ -625,7 +624,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>44165</v>
       </c>
       <c r="B12">
@@ -642,7 +641,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>44196</v>
       </c>
       <c r="B13">
@@ -659,7 +658,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>44227</v>
       </c>
       <c r="B14">
@@ -676,7 +675,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>44255</v>
       </c>
       <c r="B15">
@@ -693,7 +692,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>44286</v>
       </c>
       <c r="B16">
@@ -710,7 +709,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>44316</v>
       </c>
       <c r="B17">
@@ -727,7 +726,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>44347</v>
       </c>
       <c r="B18">
@@ -744,7 +743,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>44377</v>
       </c>
       <c r="B19">
@@ -761,7 +760,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>44408</v>
       </c>
       <c r="B20">
@@ -778,7 +777,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>44439</v>
       </c>
       <c r="B21">
@@ -795,7 +794,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>44469</v>
       </c>
       <c r="B22">
@@ -812,7 +811,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>44500</v>
       </c>
       <c r="B23">
@@ -829,7 +828,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>44530</v>
       </c>
       <c r="B24">
@@ -846,7 +845,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>44561</v>
       </c>
       <c r="B25">
@@ -863,7 +862,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>44592</v>
       </c>
       <c r="B26">
@@ -880,7 +879,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>44620</v>
       </c>
       <c r="B27">
@@ -897,7 +896,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>44651</v>
       </c>
       <c r="B28">
@@ -914,7 +913,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>44681</v>
       </c>
       <c r="B29">
@@ -931,7 +930,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>44712</v>
       </c>
       <c r="B30">
@@ -948,7 +947,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>44742</v>
       </c>
       <c r="B31">
@@ -965,7 +964,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>44773</v>
       </c>
       <c r="B32">
@@ -982,7 +981,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>44804</v>
       </c>
       <c r="B33">
@@ -999,7 +998,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>44834</v>
       </c>
       <c r="B34">
@@ -1016,7 +1015,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>44865</v>
       </c>
       <c r="B35">
@@ -1033,7 +1032,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>44895</v>
       </c>
       <c r="B36">
@@ -1050,7 +1049,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>44926</v>
       </c>
       <c r="B37">
@@ -1067,7 +1066,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>44957</v>
       </c>
       <c r="B38">
@@ -1084,7 +1083,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>44985</v>
       </c>
       <c r="B39">
@@ -1101,7 +1100,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>45016</v>
       </c>
       <c r="B40">
@@ -1118,7 +1117,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>45046</v>
       </c>
       <c r="B41">
@@ -1135,7 +1134,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>45077</v>
       </c>
       <c r="B42">
@@ -1152,7 +1151,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>45107</v>
       </c>
       <c r="B43">
@@ -1169,7 +1168,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>45138</v>
       </c>
       <c r="B44">
@@ -1186,7 +1185,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>45169</v>
       </c>
       <c r="B45">
@@ -1203,7 +1202,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>45199</v>
       </c>
       <c r="B46">
@@ -1220,7 +1219,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>45230</v>
       </c>
       <c r="B47">
@@ -1237,7 +1236,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>45260</v>
       </c>
       <c r="B48">
@@ -1254,7 +1253,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>45291</v>
       </c>
       <c r="B49">
@@ -1271,7 +1270,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>45322</v>
       </c>
       <c r="B50">
@@ -1288,7 +1287,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>45351</v>
       </c>
       <c r="B51">
@@ -1305,7 +1304,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>45382</v>
       </c>
       <c r="B52">
@@ -1322,7 +1321,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>45412</v>
       </c>
       <c r="B53">
@@ -1339,7 +1338,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>45443</v>
       </c>
       <c r="B54">
@@ -1356,7 +1355,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>45473</v>
       </c>
       <c r="B55">
@@ -1373,7 +1372,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>45504</v>
       </c>
       <c r="B56">
@@ -1390,7 +1389,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>45535</v>
       </c>
       <c r="B57">
@@ -1407,7 +1406,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>45565</v>
       </c>
       <c r="B58">
@@ -1424,7 +1423,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>45596</v>
       </c>
       <c r="B59">
@@ -1441,7 +1440,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>45626</v>
       </c>
       <c r="B60">
@@ -1458,7 +1457,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>45657</v>
       </c>
       <c r="B61">
@@ -1475,15 +1474,13 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="4">
-        <v>45688</v>
-      </c>
+      <c r="A62" s="3"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="4"/>
+      <c r="A63" s="3"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="4"/>
+      <c r="A64" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
